--- a/Examples/Structural Design/Steel/Steel Sections EN.xlsx
+++ b/Examples/Structural Design/Steel/Steel Sections EN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proek\Documents\Calcpad\Examples\Structural Design\Steel Sections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proek\Documents\GitHub\CalcpadVM\Examples\Structural Design\Steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E60D698-4B47-4025-B221-40E7C2F03CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCA5082-2D92-4A8B-AA8C-8FB582F68F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="858" xr2:uid="{1569CB82-53B0-4BD7-8D81-6CDD5708067B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="858" activeTab="6" xr2:uid="{1569CB82-53B0-4BD7-8D81-6CDD5708067B}"/>
   </bookViews>
   <sheets>
     <sheet name="EN_EA" sheetId="6" r:id="rId1"/>
@@ -5179,7 +5179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220EE980-C42D-4890-8B6A-6D69367AF167}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -48389,7 +48389,7 @@
   <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53430,8 +53430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CC9169-BCD2-47D3-9518-E141B786D7B7}">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
